--- a/contas.xlsx
+++ b/contas.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -455,6 +455,87 @@
         <v>97</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ROGER</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="n">
+        <v>376</v>
+      </c>
+      <c r="E4" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WAGNER</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>300</v>
+      </c>
+      <c r="D5" t="n">
+        <v>556</v>
+      </c>
+      <c r="E5" t="n">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RODRIGO</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" t="n">
+        <v>298</v>
+      </c>
+      <c r="E6" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>THIAGO FERNANDES RODRIGUES</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>296</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1296</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1234ab</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
